--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1403,10 +1415,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1450,28 +1462,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1496,28 +1508,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1750,10 +1762,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1797,28 +1809,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1843,28 +1855,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2126,10 +2138,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2173,28 +2185,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2219,28 +2231,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2589,10 +2601,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2636,28 +2648,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2682,28 +2694,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3052,10 +3064,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3099,28 +3111,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3145,28 +3157,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3515,10 +3527,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3562,28 +3574,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3608,28 +3620,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3775,10 +3787,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3822,28 +3834,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3868,28 +3880,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4035,10 +4047,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4082,28 +4094,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4128,28 +4140,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4295,10 +4307,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4342,28 +4354,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4388,28 +4400,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4497,10 +4509,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4544,28 +4556,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4590,28 +4602,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4699,10 +4711,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
+      <c r="J158" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4746,28 +4758,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4792,28 +4804,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4930,10 +4942,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4977,28 +4989,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5023,28 +5035,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5132,10 +5144,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
+      <c r="J173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5179,28 +5191,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5225,28 +5237,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5305,10 +5317,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5352,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5398,28 +5410,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
